--- a/Presentatie-schema.xlsx
+++ b/Presentatie-schema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Presentaties om te maken</t>
   </si>
@@ -93,13 +93,106 @@
   </si>
   <si>
     <t>Opzet presentatie</t>
+  </si>
+  <si>
+    <t>Wat, wie, hoe lang, versie</t>
+  </si>
+  <si>
+    <t>Onderdelen</t>
+  </si>
+  <si>
+    <t>Projecten AMIS</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Verschil Java / JavaScript</t>
+  </si>
+  <si>
+    <t>Basis JavaScript (slides NIco)</t>
+  </si>
+  <si>
+    <t>jQuery</t>
+  </si>
+  <si>
+    <t>Console debugging + JET logging</t>
+  </si>
+  <si>
+    <t>MOOC film</t>
+  </si>
+  <si>
+    <t>Tutorial link</t>
+  </si>
+  <si>
+    <t>one + two way binding</t>
+  </si>
+  <si>
+    <t>Observable Arrays</t>
+  </si>
+  <si>
+    <t>Wat /waar</t>
+  </si>
+  <si>
+    <t>Formulier + Validatie</t>
+  </si>
+  <si>
+    <t>jsDocs</t>
+  </si>
+  <si>
+    <t>calls(POST)</t>
+  </si>
+  <si>
+    <t>json server gebruik</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>Basic HTML layout</t>
+  </si>
+  <si>
+    <t>Verschillende soorten</t>
+  </si>
+  <si>
+    <t>Cookbook layout</t>
+  </si>
+  <si>
+    <t>Routing, variabelen, state</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Composite Components</t>
+  </si>
+  <si>
+    <t>Argumenten voor gebruik</t>
+  </si>
+  <si>
+    <t>Gebruik</t>
+  </si>
+  <si>
+    <t>VBCS</t>
+  </si>
+  <si>
+    <t>Voorbeeld case</t>
+  </si>
+  <si>
+    <t>Open layer case</t>
+  </si>
+  <si>
+    <t>jQuery tutorial</t>
+  </si>
+  <si>
+    <t>Knockout tutorials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +200,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,13 +266,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,153 +582,363 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C52" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Presentatie-schema.xlsx
+++ b/Presentatie-schema.xlsx
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,11 +854,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -884,11 +884,11 @@
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
